--- a/00-paper/FIGURES/spike_slab_flat_table.xlsx
+++ b/00-paper/FIGURES/spike_slab_flat_table.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="113">
   <si>
     <t>EFF</t>
   </si>
@@ -342,12 +343,36 @@
   </si>
   <si>
     <t>&amp;</t>
+  </si>
+  <si>
+    <t>Spike/Slab Skeptical \&amp; Default Enthuastic</t>
+  </si>
+  <si>
+    <t>(I) 40.3 (F) 47.1</t>
+  </si>
+  <si>
+    <t>(I) 45.1 (F) 51.3</t>
+  </si>
+  <si>
+    <t>(I) 26.9 (F) 34.7</t>
+  </si>
+  <si>
+    <t>(I) 0.196 (F) 0.200</t>
+  </si>
+  <si>
+    <t>(I) 0.316 (F) 0.312</t>
+  </si>
+  <si>
+    <t>(I) 0.401 (F) 0.400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,9 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,4 +1585,706 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="A1:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1">
+        <v>0.2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1">
+        <v>0.3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1">
+        <v>0.4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2">
+        <f>SUM(E2:E4)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="L2:O2" si="0">SUM(G2:G4)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>0.82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>0.193</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <v>0.114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
+        <f>SUM(E7:E9)</f>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7" si="1">SUM(G7:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7" si="2">SUM(I7:I9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8">
+        <v>0.127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12">
+        <f>SUM(E12:E14)</f>
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="3">SUM(G12:G14)</f>
+        <v>0.999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12" si="4">SUM(I12:I14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>0.82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13">
+        <v>0.22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14">
+        <v>2E-3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17">
+        <f>SUM(E17:E19)</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="5">SUM(G17:G19)</f>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="6">SUM(I17:I19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.8266</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.1893</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="2">
+        <f>1-E17-E18</f>
+        <v>0.10709999999999997</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="2">
+        <f>1-G17-G18</f>
+        <v>0.19040000000000004</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="2">
+        <f>1-I17-I18</f>
+        <v>1.4400000000000033E-2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J2:J16" r:id="rId2" display="\\"/>
+    <hyperlink ref="J17:J21" r:id="rId3" display="\\"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>